--- a/regras_cnae.xlsx
+++ b/regras_cnae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sescms-my.sharepoint.com/personal/daniloamaral_sescms_com_br/Documents/Validador de CNPJ/Etapas/Alterados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{9A0FF74F-96DE-42D0-B5A9-274C01E55AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC8BDFFA-46DC-48ED-812C-289372389284}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{9A0FF74F-96DE-42D0-B5A9-274C01E55AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CA92317-8C58-45C1-8F16-7D92F2A31930}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{102B4DF2-17A5-4BA4-B20E-AE6FE42FA2F2}"/>
   </bookViews>
@@ -8443,7 +8443,7 @@
     <t>ADERENTE</t>
   </si>
   <si>
-    <t>JUSTIFICATIVA</t>
+    <t>JUST</t>
   </si>
 </sst>
 </file>
@@ -8563,7 +8563,7 @@
     <tableColumn id="8" xr3:uid="{3909EB9F-E5DB-416C-B28E-8ACA37FF688E}" uniqueName="8" name="Tem projeto lei para se desvincular à CNC?" queryTableFieldId="8" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{D41CE394-0BC6-4181-9438-8FDE24887969}" uniqueName="9" name="Apresenta risco a contribuição do Sesc?" queryTableFieldId="9" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{7AC88C21-36D6-49D9-ACBC-81759A89DC50}" uniqueName="10" name="Pesquisa anual IBGE" queryTableFieldId="10" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{043D7488-262A-4A45-A41A-3C3B0B59F6EE}" uniqueName="11" name="JUSTIFICATIVA" queryTableFieldId="11" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{043D7488-262A-4A45-A41A-3C3B0B59F6EE}" uniqueName="11" name="JUST" queryTableFieldId="11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8888,8 +8888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A640867-F888-49F7-86A7-33A60B050DF9}">
   <dimension ref="A1:K1332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/regras_cnae.xlsx
+++ b/regras_cnae.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sescms-my.sharepoint.com/personal/daniloamaral_sescms_com_br/Documents/Validador de CNPJ/Etapas/Alterados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sescms-my.sharepoint.com/personal/daniloamaral_sescms_com_br/Documents/Validador de CNPJ/Etapas/Alterados - Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{9A0FF74F-96DE-42D0-B5A9-274C01E55AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CA92317-8C58-45C1-8F16-7D92F2A31930}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{9A0FF74F-96DE-42D0-B5A9-274C01E55AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A60E40F-16F9-4509-B336-011DEB8B6275}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{102B4DF2-17A5-4BA4-B20E-AE6FE42FA2F2}"/>
   </bookViews>
@@ -8889,7 +8889,7 @@
   <dimension ref="A1:K1332"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
